--- a/views/modules/informes/RDS.xlsx
+++ b/views/modules/informes/RDS.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wis\views\modules\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157A26D-532E-45AD-801F-C61BD982C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A4AD51-9B66-4084-A827-57013F9343DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MENSUAL" sheetId="1" r:id="rId1"/>
+    <sheet name="RDS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AÑO">MENSUAL!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MENSUAL!$A$2:$F$63</definedName>
-    <definedName name="C.COSTO">MENSUAL!#REF!</definedName>
-    <definedName name="CC">MENSUAL!#REF!</definedName>
-    <definedName name="EMPRESA">MENSUAL!$C$3</definedName>
-    <definedName name="MES">MENSUAL!#REF!</definedName>
-    <definedName name="MONEDA">MENSUAL!#REF!</definedName>
-    <definedName name="NO.EMPRESA">MENSUAL!#REF!</definedName>
-    <definedName name="NombMes">MENSUAL!#REF!</definedName>
-    <definedName name="NOMMONEDA">MENSUAL!#REF!</definedName>
-    <definedName name="TITULO">MENSUAL!$C$4</definedName>
-    <definedName name="TITULO_1">MENSUAL!#REF!</definedName>
-    <definedName name="TITULO_2">MENSUAL!$C$24</definedName>
-    <definedName name="UN.MONEDA">MENSUAL!#REF!</definedName>
-    <definedName name="UND_MONEDA">MENSUAL!#REF!</definedName>
+    <definedName name="AÑO">RDS!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RDS!$A$2:$E$63</definedName>
+    <definedName name="C.COSTO">RDS!#REF!</definedName>
+    <definedName name="CC">RDS!#REF!</definedName>
+    <definedName name="EMPRESA">RDS!$C$3</definedName>
+    <definedName name="MES">RDS!#REF!</definedName>
+    <definedName name="MONEDA">RDS!#REF!</definedName>
+    <definedName name="NO.EMPRESA">RDS!#REF!</definedName>
+    <definedName name="NombMes">RDS!#REF!</definedName>
+    <definedName name="NOMMONEDA">RDS!#REF!</definedName>
+    <definedName name="TITULO">RDS!$C$4</definedName>
+    <definedName name="TITULO_1">RDS!#REF!</definedName>
+    <definedName name="TITULO_2">RDS!$C$24</definedName>
+    <definedName name="UN.MONEDA">RDS!#REF!</definedName>
+    <definedName name="UND_MONEDA">RDS!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>RESUMEN</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>TOTAL DISPONIBLE</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>INFORMACIÓN DETALLADA</t>
@@ -391,7 +388,7 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -472,26 +469,11 @@
     <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -501,6 +483,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -526,6 +520,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1522565</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA00A87-9227-4533-99B0-52C43A08A584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1181100" y="438150"/>
+          <a:ext cx="1522565" cy="610699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,9 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -866,7 +924,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" s="5" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3"/>
@@ -874,36 +932,36 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="48"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="51"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
-      <c r="C4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="48"/>
+      <c r="C4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="51"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="48"/>
+      <c r="C5" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="51"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
@@ -915,10 +973,10 @@
     </row>
     <row r="7" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="49"/>
+      <c r="C7" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
@@ -930,10 +988,10 @@
     </row>
     <row r="9" spans="2:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +1009,7 @@
       <c r="C11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,7 +1017,7 @@
       <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +1025,7 @@
       <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,7 +1033,7 @@
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -983,7 +1041,7 @@
       <c r="C15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1072,7 @@
       <c r="C19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1080,7 @@
       <c r="C20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,33 +1093,31 @@
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="43"/>
+      <c r="C23" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="54"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="2:6" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>13</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>14</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1069,318 +1125,318 @@
     <row r="26" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="33"/>
       <c r="C26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="45"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
     <row r="27" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33"/>
       <c r="C27" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="D27" s="45"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="33"/>
       <c r="C28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="D28" s="45"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="53"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="48"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="2:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="13"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="2:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="32"/>
       <c r="C32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="2:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="32"/>
-      <c r="C33" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="23"/>
     </row>
     <row r="34" spans="2:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="32"/>
-      <c r="C34" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
+      <c r="C34" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32"/>
       <c r="C35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="32"/>
       <c r="C36" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="32"/>
       <c r="C37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="32"/>
       <c r="C38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="32"/>
       <c r="C39" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="32"/>
       <c r="C40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="32"/>
       <c r="C41" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="32"/>
       <c r="C42" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+        <v>33</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="32"/>
       <c r="C43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="32"/>
       <c r="C44" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="32"/>
       <c r="C45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="32"/>
       <c r="C46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+        <v>27</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="32"/>
       <c r="C47" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="16"/>
     </row>
     <row r="48" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="32"/>
       <c r="C48" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
+        <v>37</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="32"/>
       <c r="C49" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="32"/>
       <c r="C50" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
+        <v>39</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="32"/>
       <c r="C51" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="16"/>
     </row>
     <row r="52" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="32"/>
       <c r="C52" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="32"/>
       <c r="C53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+        <v>42</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="16"/>
     </row>
     <row r="54" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="32"/>
       <c r="C54" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+        <v>43</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="32"/>
       <c r="C55" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="32"/>
       <c r="C56" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="16"/>
     </row>
     <row r="57" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="32"/>
       <c r="C57" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
+        <v>46</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="32"/>
       <c r="C58" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+        <v>29</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="32"/>
       <c r="C59" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="43"/>
+      <c r="C60" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="2:6" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
-      <c r="C60" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
       <c r="F60" s="27"/>
     </row>
     <row r="61" spans="2:6" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1420,8 +1476,7 @@
       <c r="F68" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C24:F24"/>
+  <mergeCells count="6">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -1430,8 +1485,12 @@
     <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.23622047244094491" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;RInforme generado por el palicativo WIS - &amp;"Arial,Negrita"Web Information System&amp;"Arial,Normal"
+&amp;D &amp;T</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>